--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2731398110005052</v>
+        <v>-0.2453501895176297</v>
       </c>
       <c r="C2">
-        <v>1.954904495510687</v>
+        <v>1.885822625406119</v>
       </c>
       <c r="D2">
-        <v>16.7369754246168</v>
+        <v>16.01396840704841</v>
       </c>
       <c r="E2">
-        <v>4.091084871353416</v>
+        <v>4.0017456699606</v>
       </c>
       <c r="F2">
-        <v>4.178015828355637</v>
+        <v>4.083986181670692</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01488157163777362</v>
+        <v>-0.008306120572730035</v>
       </c>
       <c r="C3">
-        <v>1.752155569855608</v>
+        <v>1.678411150852771</v>
       </c>
       <c r="D3">
-        <v>10.88565705993317</v>
+        <v>10.3892641846745</v>
       </c>
       <c r="E3">
-        <v>3.29934191315983</v>
+        <v>3.22323815202577</v>
       </c>
       <c r="F3">
-        <v>3.380785024028695</v>
+        <v>3.299078473400757</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6570990114281711</v>
+        <v>-0.6206486848402303</v>
       </c>
       <c r="C4">
-        <v>1.129967425434843</v>
+        <v>1.081319350267402</v>
       </c>
       <c r="D4">
-        <v>5.20882987611967</v>
+        <v>4.95937692841922</v>
       </c>
       <c r="E4">
-        <v>2.282286107419416</v>
+        <v>2.226965857039398</v>
       </c>
       <c r="F4">
-        <v>2.242426027718474</v>
+        <v>2.191547568579468</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.01990966418030321</v>
+        <v>-0.007917461514596722</v>
       </c>
       <c r="C5">
-        <v>0.7630979043556427</v>
+        <v>0.7359397285945519</v>
       </c>
       <c r="D5">
-        <v>2.160275983970295</v>
+        <v>2.052934180666193</v>
       </c>
       <c r="E5">
-        <v>1.469787734324346</v>
+        <v>1.432806400274019</v>
       </c>
       <c r="F5">
-        <v>1.509924799371146</v>
+        <v>1.470005905634166</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02640479156802359</v>
+        <v>-0.01396789604063663</v>
       </c>
       <c r="C6">
-        <v>0.7054922130995549</v>
+        <v>0.6794082136444377</v>
       </c>
       <c r="D6">
-        <v>1.040078856359899</v>
+        <v>0.985853761070935</v>
       </c>
       <c r="E6">
-        <v>1.01984256449704</v>
+        <v>0.992901687515403</v>
       </c>
       <c r="F6">
-        <v>1.049057548473549</v>
+        <v>1.020008565325462</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004386375610123202</v>
+        <v>0.006227155691902452</v>
       </c>
       <c r="C7">
-        <v>0.6094268367774349</v>
+        <v>0.5859396340579296</v>
       </c>
       <c r="D7">
-        <v>0.9227697331241523</v>
+        <v>0.8714568099673092</v>
       </c>
       <c r="E7">
-        <v>0.960609042807818</v>
+        <v>0.9335185107791432</v>
       </c>
       <c r="F7">
-        <v>0.9901628142054374</v>
+        <v>0.9605612509173802</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1276921712949286</v>
+        <v>0.1323879842408515</v>
       </c>
       <c r="C8">
-        <v>0.531544694086506</v>
+        <v>0.5124844762799831</v>
       </c>
       <c r="D8">
-        <v>0.6230921363534133</v>
+        <v>0.586790449754057</v>
       </c>
       <c r="E8">
-        <v>0.7893618538752765</v>
+        <v>0.7660224864545799</v>
       </c>
       <c r="F8">
-        <v>0.8045118408863187</v>
+        <v>0.7777164414773035</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1647742990357935</v>
+        <v>0.1676475329133778</v>
       </c>
       <c r="C9">
-        <v>0.5051018588726254</v>
+        <v>0.4867046202604076</v>
       </c>
       <c r="D9">
-        <v>0.4174672978182004</v>
+        <v>0.3917272528104276</v>
       </c>
       <c r="E9">
-        <v>0.6461170929624137</v>
+        <v>0.6258811810642877</v>
       </c>
       <c r="F9">
-        <v>0.6466811381934218</v>
+        <v>0.6227864759983028</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1985256848214565</v>
+        <v>0.199895990469669</v>
       </c>
       <c r="C10">
-        <v>0.4929686856958267</v>
+        <v>0.4747094579524145</v>
       </c>
       <c r="D10">
-        <v>0.3919354969705335</v>
+        <v>0.3665317847062111</v>
       </c>
       <c r="E10">
-        <v>0.626047519738345</v>
+        <v>0.6054186854617316</v>
       </c>
       <c r="F10">
-        <v>0.6161495005967972</v>
+        <v>0.5915234970278875</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2660056314418174</v>
+        <v>0.263452728002003</v>
       </c>
       <c r="C11">
-        <v>0.4118180758983223</v>
+        <v>0.3988499978544717</v>
       </c>
       <c r="D11">
-        <v>0.2293827547780025</v>
+        <v>0.2138270447762498</v>
       </c>
       <c r="E11">
-        <v>0.4789391973706082</v>
+        <v>0.4624143648030949</v>
       </c>
       <c r="F11">
-        <v>0.4145387863487717</v>
+        <v>0.3943715417630878</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2453501895176297</v>
+        <v>-0.3684425897240435</v>
       </c>
       <c r="C2">
-        <v>1.885822625406119</v>
+        <v>1.990300204684291</v>
       </c>
       <c r="D2">
-        <v>16.01396840704841</v>
+        <v>12.34821194374062</v>
       </c>
       <c r="E2">
-        <v>4.0017456699606</v>
+        <v>3.514002268602088</v>
       </c>
       <c r="F2">
-        <v>4.083986181670692</v>
+        <v>3.576871232156456</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.008306120572730035</v>
+        <v>-0.4406390919636032</v>
       </c>
       <c r="C3">
-        <v>1.678411150852771</v>
+        <v>1.050095607268688</v>
       </c>
       <c r="D3">
-        <v>10.3892641846745</v>
+        <v>4.94590582631831</v>
       </c>
       <c r="E3">
-        <v>3.22323815202577</v>
+        <v>2.223939258684533</v>
       </c>
       <c r="F3">
-        <v>3.299078473400757</v>
+        <v>2.233680856299617</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.6206486848402303</v>
+        <v>-0.2266117036152265</v>
       </c>
       <c r="C4">
-        <v>1.081319350267402</v>
+        <v>0.7762331526076556</v>
       </c>
       <c r="D4">
-        <v>4.95937692841922</v>
+        <v>2.687494923465916</v>
       </c>
       <c r="E4">
-        <v>2.226965857039398</v>
+        <v>1.639358082746389</v>
       </c>
       <c r="F4">
-        <v>2.191547568579468</v>
+        <v>1.665799020938133</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.007917461514596722</v>
+        <v>0.02747715458826221</v>
       </c>
       <c r="C5">
-        <v>0.7359397285945519</v>
+        <v>0.7115633747814063</v>
       </c>
       <c r="D5">
-        <v>2.052934180666193</v>
+        <v>1.229190786505692</v>
       </c>
       <c r="E5">
-        <v>1.432806400274019</v>
+        <v>1.10868876899953</v>
       </c>
       <c r="F5">
-        <v>1.470005905634166</v>
+        <v>1.138719555200954</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01396789604063663</v>
+        <v>-0.06432496402825524</v>
       </c>
       <c r="C6">
-        <v>0.6794082136444377</v>
+        <v>0.6672897034160007</v>
       </c>
       <c r="D6">
-        <v>0.985853761070935</v>
+        <v>1.122755052931566</v>
       </c>
       <c r="E6">
-        <v>0.992901687515403</v>
+        <v>1.059601365104616</v>
       </c>
       <c r="F6">
-        <v>1.020008565325462</v>
+        <v>1.088309869768877</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.006227155691902452</v>
+        <v>0.1299503236878231</v>
       </c>
       <c r="C7">
-        <v>0.5859396340579296</v>
+        <v>0.5419393736802232</v>
       </c>
       <c r="D7">
-        <v>0.8714568099673092</v>
+        <v>0.7287712587988439</v>
       </c>
       <c r="E7">
-        <v>0.9335185107791432</v>
+        <v>0.8536810052934549</v>
       </c>
       <c r="F7">
-        <v>0.9605612509173802</v>
+        <v>0.8696993347893518</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1323879842408515</v>
+        <v>0.1289229671324676</v>
       </c>
       <c r="C8">
-        <v>0.5124844762799831</v>
+        <v>0.5250093336297077</v>
       </c>
       <c r="D8">
-        <v>0.586790449754057</v>
+        <v>0.4739960288771982</v>
       </c>
       <c r="E8">
-        <v>0.7660224864545799</v>
+        <v>0.6884736951236395</v>
       </c>
       <c r="F8">
-        <v>0.7777164414773035</v>
+        <v>0.6984744499630291</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1676475329133778</v>
+        <v>0.196164091590951</v>
       </c>
       <c r="C9">
-        <v>0.4867046202604076</v>
+        <v>0.5034467950485412</v>
       </c>
       <c r="D9">
-        <v>0.3917272528104276</v>
+        <v>0.4366068896125055</v>
       </c>
       <c r="E9">
-        <v>0.6258811810642877</v>
+        <v>0.6607623548693626</v>
       </c>
       <c r="F9">
-        <v>0.6227864759983028</v>
+        <v>0.6531187860533945</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.199895990469669</v>
+        <v>0.2421836099529805</v>
       </c>
       <c r="C10">
-        <v>0.4747094579524145</v>
+        <v>0.4042897487511507</v>
       </c>
       <c r="D10">
-        <v>0.3665317847062111</v>
+        <v>0.229010732524476</v>
       </c>
       <c r="E10">
-        <v>0.6054186854617316</v>
+        <v>0.4785506582635489</v>
       </c>
       <c r="F10">
-        <v>0.5915234970278875</v>
+        <v>0.4283249702957092</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.263452728002003</v>
+        <v>0.2725419345940574</v>
       </c>
       <c r="C11">
-        <v>0.3988499978544717</v>
+        <v>0.3839238355923389</v>
       </c>
       <c r="D11">
-        <v>0.2138270447762498</v>
+        <v>0.1922556345917136</v>
       </c>
       <c r="E11">
-        <v>0.4624143648030949</v>
+        <v>0.4384696507076785</v>
       </c>
       <c r="F11">
-        <v>0.3943715417630878</v>
+        <v>0.3575023158704416</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.3684425897240435</v>
+        <v>-0.2453501895176297</v>
       </c>
       <c r="C2">
-        <v>1.990300204684291</v>
+        <v>1.885822625406119</v>
       </c>
       <c r="D2">
-        <v>12.34821194374062</v>
+        <v>16.01396840704841</v>
       </c>
       <c r="E2">
-        <v>3.514002268602088</v>
+        <v>4.0017456699606</v>
       </c>
       <c r="F2">
-        <v>3.576871232156456</v>
+        <v>4.083986181670692</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.4406390919636032</v>
+        <v>-0.008306120572730035</v>
       </c>
       <c r="C3">
-        <v>1.050095607268688</v>
+        <v>1.678411150852771</v>
       </c>
       <c r="D3">
-        <v>4.94590582631831</v>
+        <v>10.3892641846745</v>
       </c>
       <c r="E3">
-        <v>2.223939258684533</v>
+        <v>3.22323815202577</v>
       </c>
       <c r="F3">
-        <v>2.233680856299617</v>
+        <v>3.299078473400757</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2266117036152265</v>
+        <v>-0.6206486848402303</v>
       </c>
       <c r="C4">
-        <v>0.7762331526076556</v>
+        <v>1.081319350267402</v>
       </c>
       <c r="D4">
-        <v>2.687494923465916</v>
+        <v>4.95937692841922</v>
       </c>
       <c r="E4">
-        <v>1.639358082746389</v>
+        <v>2.226965857039398</v>
       </c>
       <c r="F4">
-        <v>1.665799020938133</v>
+        <v>2.191547568579468</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02747715458826221</v>
+        <v>-0.007917461514596722</v>
       </c>
       <c r="C5">
-        <v>0.7115633747814063</v>
+        <v>0.7359397285945519</v>
       </c>
       <c r="D5">
-        <v>1.229190786505692</v>
+        <v>2.052934180666193</v>
       </c>
       <c r="E5">
-        <v>1.10868876899953</v>
+        <v>1.432806400274019</v>
       </c>
       <c r="F5">
-        <v>1.138719555200954</v>
+        <v>1.470005905634166</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.06432496402825524</v>
+        <v>-0.01396789604063663</v>
       </c>
       <c r="C6">
-        <v>0.6672897034160007</v>
+        <v>0.6794082136444377</v>
       </c>
       <c r="D6">
-        <v>1.122755052931566</v>
+        <v>0.985853761070935</v>
       </c>
       <c r="E6">
-        <v>1.059601365104616</v>
+        <v>0.992901687515403</v>
       </c>
       <c r="F6">
-        <v>1.088309869768877</v>
+        <v>1.020008565325462</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1299503236878231</v>
+        <v>0.006227155691902452</v>
       </c>
       <c r="C7">
-        <v>0.5419393736802232</v>
+        <v>0.5859396340579296</v>
       </c>
       <c r="D7">
-        <v>0.7287712587988439</v>
+        <v>0.8714568099673092</v>
       </c>
       <c r="E7">
-        <v>0.8536810052934549</v>
+        <v>0.9335185107791432</v>
       </c>
       <c r="F7">
-        <v>0.8696993347893518</v>
+        <v>0.9605612509173802</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1289229671324676</v>
+        <v>0.1323879842408515</v>
       </c>
       <c r="C8">
-        <v>0.5250093336297077</v>
+        <v>0.5124844762799831</v>
       </c>
       <c r="D8">
-        <v>0.4739960288771982</v>
+        <v>0.586790449754057</v>
       </c>
       <c r="E8">
-        <v>0.6884736951236395</v>
+        <v>0.7660224864545799</v>
       </c>
       <c r="F8">
-        <v>0.6984744499630291</v>
+        <v>0.7777164414773035</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.196164091590951</v>
+        <v>0.1676475329133778</v>
       </c>
       <c r="C9">
-        <v>0.5034467950485412</v>
+        <v>0.4867046202604076</v>
       </c>
       <c r="D9">
-        <v>0.4366068896125055</v>
+        <v>0.3917272528104276</v>
       </c>
       <c r="E9">
-        <v>0.6607623548693626</v>
+        <v>0.6258811810642877</v>
       </c>
       <c r="F9">
-        <v>0.6531187860533945</v>
+        <v>0.6227864759983028</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2421836099529805</v>
+        <v>0.199895990469669</v>
       </c>
       <c r="C10">
-        <v>0.4042897487511507</v>
+        <v>0.4747094579524145</v>
       </c>
       <c r="D10">
-        <v>0.229010732524476</v>
+        <v>0.3665317847062111</v>
       </c>
       <c r="E10">
-        <v>0.4785506582635489</v>
+        <v>0.6054186854617316</v>
       </c>
       <c r="F10">
-        <v>0.4283249702957092</v>
+        <v>0.5915234970278875</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2725419345940574</v>
+        <v>0.263452728002003</v>
       </c>
       <c r="C11">
-        <v>0.3839238355923389</v>
+        <v>0.3988499978544717</v>
       </c>
       <c r="D11">
-        <v>0.1922556345917136</v>
+        <v>0.2138270447762498</v>
       </c>
       <c r="E11">
-        <v>0.4384696507076785</v>
+        <v>0.4624143648030949</v>
       </c>
       <c r="F11">
-        <v>0.3575023158704416</v>
+        <v>0.3943715417630878</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
